--- a/Data_Sets/SS SAS Dataset/Historic SS/Scored_Labor_Data.xlsx
+++ b/Data_Sets/SS SAS Dataset/Historic SS/Scored_Labor_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\AA490\Project\AA490_Project\Data_Sets\SS SAS Dataset\Historic SS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\AA Capstone\Project\GitRepository\aa490_project\Data_Sets\SS SAS Dataset\Historic SS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4A354D-B2CE-48C6-ADE4-220A831541F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C6C8D685-D6DA-4DCA-AE7A-5D2E11D6BECF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,27 +440,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B897A0-9923-4BB6-8E59-2A441D8BA1BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -490,7 +489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -519,7 +518,7 @@
         <v>3121972.2717167102</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -548,7 +547,7 @@
         <v>24745416.947411101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -577,7 +576,7 @@
         <v>22595586.507531699</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -606,7 +605,7 @@
         <v>2281040.3768742899</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -635,7 +634,7 @@
         <v>3138105.9633058002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -664,7 +663,7 @@
         <v>25567268.809239</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -693,7 +692,7 @@
         <v>22480321.715381902</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -722,7 +721,7 @@
         <v>2523109.13971614</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -751,7 +750,7 @@
         <v>3135538.0877858601</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -780,7 +779,7 @@
         <v>26223332.633774299</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -809,7 +808,7 @@
         <v>22080251.238802001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -838,7 +837,7 @@
         <v>2788846.4581706398</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -867,7 +866,7 @@
         <v>3128358.17268077</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -896,7 +895,7 @@
         <v>26625988.852614202</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -925,7 +924,7 @@
         <v>22025207.985312801</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -954,7 +953,7 @@
         <v>3014765.6008664099</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -983,7 +982,7 @@
         <v>3102679.4174813698</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>26849467.976518098</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>22568927.928315699</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>3147619.6318145399</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>3084535.3496628501</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>27059164.2469653</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>23469949.548149101</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>3217952.3978130701</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>3076409.3751556701</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>27580353.005532201</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>24190881.917019598</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>3263855.9376848098</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>3071560.8207200002</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>28148206.5679451</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>24653667.180675998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>3335563.76192042</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>3063080.0739370398</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>28684162.6695012</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>24931760.273217201</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>3440009.6748217298</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>3050071.7571584</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>29072445.341164999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>25197195.3353392</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1649,7 @@
         <v>3578217.6559269801</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>1119707.8307352101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>6771570.31986129</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>5318677.5323927496</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>1592446.30970426</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>998169.15203733195</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>7023945.8277054904</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>5280890.9743151404</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>2837242.6353212101</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>1017513.52812327</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1939,7 @@
         <v>7225410.8952993797</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>5149738.2951971898</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>4203750.3734863903</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>1071601.42178463</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>7349059.1735795401</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>5131693.7990769297</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>5365500.0986996004</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>1265045.1826440899</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>7417685.4796176702</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>5309938.2119721398</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>6048678.7444122601</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>1401728.47156716</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>7482079.3262525704</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>5605314.6676270701</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>6410352.7070401497</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>1462943.2406285999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>7642126.7554005403</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>5841653.5558362696</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>6646403.64188339</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>1499468.4770540399</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>7816504.0828137305</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>5993365.6434257403</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>7015148.6012847796</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>1563355.8243905201</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>7981086.2898937296</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>6084531.2161587402</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>7552243.4625915904</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>1661350.3611416901</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>8100320.7176533798</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>6171547.1835121699</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>8262953.8616989702</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>1435372.2662064601</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>8049755.4183721198</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>7348721.2602222199</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>2037152.7352910701</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>1327666.2175173999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>8327560.3946560603</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>7301862.1876907097</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>3226483.32154046</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>1344808.96034539</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>8549325.1720825192</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>7139219.8826978197</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>4532102.0929814996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>1392740.9715421</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>8685432.3058871794</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>7116842.9212726299</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>5642086.4762323797</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>1564168.39982207</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>8760973.4290501606</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>7337883.6377898101</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>6294823.99039221</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>1685295.4116462001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>8831855.6283176206</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>7704179.6823039902</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>6640382.45417557</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>1739543.17020059</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>9008029.5076237004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>7997263.29901936</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>6865915.4116115496</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>1771911.37540871</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>9199977.1721188799</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>8185401.3057057699</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>7218229.8020994896</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>1828527.53922223</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>9381142.7555987202</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>8298455.6404323699</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>7731392.7454050602</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>1915369.0653903701</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>9512391.2973409202</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>8406364.0537162405</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>8410435.2507763598</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>5308028.47555965</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>15105124.245697699</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>13305849.242970999</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>2227232.8352533798</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>5194477.9061039099</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>15549851.901016099</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>13242688.387464199</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>2810613.6669188002</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>5212550.8763209498</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>15904866.886047401</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>13023464.5195987</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>3451035.2397997701</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>5263083.8522567498</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>16122755.734903701</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>12993302.846503099</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>3995495.8129349402</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>5443813.5544271497</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>16243686.7096968</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>13291241.324642399</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>4315671.34551806</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>5571513.3571449304</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>16357159.386484999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>13784967.945559001</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>4485171.8917259099</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>5628704.7957922705</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>16639189.598183</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>14180012.298054799</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>4595798.4961352702</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>5662829.4171889201</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>16946471.475983299</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>14433601.556520401</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>4768612.90493536</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>5722517.7793530896</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>17236492.721258</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>14585986.316062599</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>5020325.4465168901</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>5814071.6416367805</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>17446603.630766299</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>14731434.941722101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>5353403.8908953601</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>4444436.9721537</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>9980643.9110165909</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>7712220.0423093699</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>1870818.30917532</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>4292346.4690905297</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>10276356.4753068</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>7674003.3445558399</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -5362,7 +5361,7 @@
         <v>2759089.9119252302</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>4316553.5439236201</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -5420,7 +5419,7 @@
         <v>10512416.4331926</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>7541357.7014379203</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>3734213.3066288</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>4384237.79921351</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>10657297.1696501</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>7523107.7975190198</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>4563223.8597391201</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -5623,7 +5622,7 @@
         <v>4626308.54754443</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>10737707.749542199</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>7703381.2386691999</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>5050731.8786039203</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>4797350.6420887699</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>10813159.086621501</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>8002120.0840037903</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>5308818.0440632803</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>4873953.2933698101</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>11000689.3112684</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>8241149.3133806996</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>5477261.1362453699</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>4919660.0728243897</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>11205010.1151528</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>8394588.4010333903</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>5740393.0794820096</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>4999607.1226021098</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>11397853.814241899</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>8486791.7483588792</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>6123657.4766076095</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>5122235.0674802698</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>11537562.768909</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>8574798.2536681797</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>9</v>
       </c>
